--- a/WebContent/template/TeamExcel.xlsx
+++ b/WebContent/template/TeamExcel.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>ModuleId</t>
+  </si>
+  <si>
+    <t>TeamDescription</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>TeamName</t>
   </si>
@@ -24,28 +33,22 @@
     <t>TeamId</t>
   </si>
   <si>
-    <t>ModuleId</t>
-  </si>
-  <si>
-    <t>TeamDescription</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Incredible</t>
-  </si>
-  <si>
-    <t>MOD05</t>
-  </si>
-  <si>
-    <t>Team works for eOdering</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>TE-00123</t>
+    <t>vipul</t>
+  </si>
+  <si>
+    <t>nlskan</t>
+  </si>
+  <si>
+    <t>ndslkcn</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
   </si>
 </sst>
 </file>
@@ -128,12 +131,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -142,7 +149,7 @@
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -438,56 +445,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WebContent/template/TeamExcel.xlsx
+++ b/WebContent/template/TeamExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ModuleId</t>
   </si>
@@ -33,29 +33,26 @@
     <t>TeamId</t>
   </si>
   <si>
-    <t>vipul</t>
-  </si>
-  <si>
-    <t>nlskan</t>
-  </si>
-  <si>
-    <t>ndslkcn</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>m22255111</t>
+  </si>
+  <si>
+    <t>abc_1234511</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +69,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,16 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,136 +451,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/template/TeamExcel.xlsx
+++ b/WebContent/template/TeamExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ModuleId</t>
   </si>
@@ -36,16 +36,19 @@
     <t>y</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>m22255111</t>
-  </si>
-  <si>
-    <t>abc_1234511</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>MOD_E01</t>
+  </si>
+  <si>
+    <t>MOD_P02</t>
+  </si>
+  <si>
+    <t>TESTINGTEAM</t>
+  </si>
+  <si>
+    <t>DEV</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,29 +487,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/WebContent/template/TeamExcel.xlsx
+++ b/WebContent/template/TeamExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ModuleId</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>DEV</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +497,9 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -504,7 +512,9 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>

--- a/WebContent/template/TeamExcel.xlsx
+++ b/WebContent/template/TeamExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ModuleId</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>for testing</t>
+  </si>
+  <si>
+    <t>for dev</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +509,9 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -518,7 +526,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
